--- a/app/data/absenteeism_data_30.xlsx
+++ b/app/data/absenteeism_data_30.xlsx
@@ -476,156 +476,156 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>26991</v>
+        <v>61221</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Gabriela Lopes</t>
+          <t>Heloísa Nogueira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>5489.23</v>
+        <v>9654.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87134</v>
+        <v>69785</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Julia Caldeira</t>
+          <t>Clara Silveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>11978.07</v>
+        <v>2519.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42619</v>
+        <v>79393</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Júlia Barbosa</t>
+          <t>Kaique da Rosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>11287.39</v>
+        <v>5223.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43285</v>
+        <v>61715</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Manuela Sales</t>
+          <t>Nicolas Alves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>7708.12</v>
+        <v>11926.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45879</v>
+        <v>27968</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kaique da Costa</t>
+          <t>Stella Moura</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>7377.23</v>
+        <v>5208.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30683</v>
+        <v>28414</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Igor Costela</t>
+          <t>Ana Laura Ferreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,31 +635,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45091</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>12486.61</v>
+        <v>3992.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61334</v>
+        <v>7685</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Felipe da Rocha</t>
+          <t>Nathan Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,85 +668,85 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45093</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>3512.64</v>
+        <v>9238.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>90914</v>
+        <v>38304</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Cardoso</t>
+          <t>Marcela Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>7994.8</v>
+        <v>7841.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29526</v>
+        <v>30070</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Marcela Santos</t>
+          <t>Emanuella Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>5052.23</v>
+        <v>9840.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91435</v>
+        <v>33795</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lorenzo da Cruz</t>
+          <t>Alice Pires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>3261.7</v>
+        <v>9759.25</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_30.xlsx
+++ b/app/data/absenteeism_data_30.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>92837</v>
+        <v>66898</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eloah Almeida</t>
+          <t>Laura Oliveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,172 +494,172 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>4750.04</v>
+        <v>2624.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97644</v>
+        <v>64387</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eduardo Moraes</t>
+          <t>Rafaela Lima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>11589.59</v>
+        <v>3661.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>54102</v>
+        <v>76517</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Breno da Cruz</t>
+          <t>Caio Souza</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>2706.96</v>
+        <v>11661.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66747</v>
+        <v>88563</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Lívia Peixoto</t>
+          <t>Fernando da Conceição</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>11175.55</v>
+        <v>12332.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27393</v>
+        <v>68312</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Olivia Farias</t>
+          <t>Sabrina Alves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45100</v>
       </c>
       <c r="G6" t="n">
-        <v>6856.83</v>
+        <v>6276.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>57458</v>
+        <v>62223</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yuri Lima</t>
+          <t>Daniel Costela</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>7368.91</v>
+        <v>7379.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>55205</v>
+        <v>70563</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yago Lima</t>
+          <t>Alícia da Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -671,82 +671,82 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>12372.19</v>
+        <v>7032.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66799</v>
+        <v>70286</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luna Gomes</t>
+          <t>Dr. Emanuel Moreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>5567.7</v>
+        <v>7282.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>55618</v>
+        <v>28774</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Paulo Ramos</t>
+          <t>Dra. Evelyn da Paz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>11033.73</v>
+        <v>9208.620000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>87707</v>
+        <v>98338</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cauê Oliveira</t>
+          <t>Gustavo Henrique da Conceição</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>9356.030000000001</v>
+        <v>7778.75</v>
       </c>
     </row>
   </sheetData>
